--- a/2024-11-12/3.Bad-RS3 Good-RS6.xlsx
+++ b/2024-11-12/3.Bad-RS3 Good-RS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
   <si>
     <t>Symbol</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>RELIGARE</t>
-  </si>
-  <si>
-    <t>IZMO</t>
   </si>
   <si>
     <t>GODREJIND</t>
@@ -854,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,7 +918,7 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>113</v>
@@ -951,7 +948,7 @@
         <v>1225913</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -971,7 +968,7 @@
         <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>115</v>
@@ -1001,7 +998,7 @@
         <v>1739611</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1021,7 +1018,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>67</v>
@@ -1051,7 +1048,7 @@
         <v>350647</v>
       </c>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1071,7 +1068,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <v>56</v>
@@ -1101,7 +1098,7 @@
         <v>256886</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -1121,7 +1118,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>158</v>
@@ -1151,7 +1148,7 @@
         <v>9632910</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>112</v>
@@ -1201,7 +1198,7 @@
         <v>440128</v>
       </c>
       <c r="O7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1221,7 +1218,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>121</v>
@@ -1251,7 +1248,7 @@
         <v>655570</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1271,7 +1268,7 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>39</v>
@@ -1301,7 +1298,7 @@
         <v>993829</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>109</v>
@@ -1351,7 +1348,7 @@
         <v>31698</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1371,7 +1368,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>113</v>
@@ -1401,7 +1398,7 @@
         <v>30067</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1421,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>83</v>
@@ -1451,7 +1448,7 @@
         <v>63136</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1471,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>115</v>
@@ -1501,7 +1498,7 @@
         <v>4908878</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -1521,7 +1518,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>29</v>
@@ -1551,7 +1548,7 @@
         <v>305232</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>101</v>
@@ -1601,7 +1598,7 @@
         <v>27434062</v>
       </c>
       <c r="O15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1621,7 +1618,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -1651,7 +1648,7 @@
         <v>1696544</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1671,7 +1668,7 @@
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>69</v>
@@ -1701,7 +1698,7 @@
         <v>196236</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1721,7 +1718,7 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>111</v>
@@ -1751,7 +1748,7 @@
         <v>2365107</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -1771,7 +1768,7 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <v>39</v>
@@ -1801,7 +1798,7 @@
         <v>849594</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1821,7 +1818,7 @@
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20">
         <v>23</v>
@@ -1851,7 +1848,7 @@
         <v>434689</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1871,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <v>151</v>
@@ -1901,7 +1898,7 @@
         <v>34220</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1921,7 +1918,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -1951,7 +1948,7 @@
         <v>882842</v>
       </c>
       <c r="O22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -1971,7 +1968,7 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>115</v>
@@ -2001,7 +1998,7 @@
         <v>676425</v>
       </c>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2021,7 +2018,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>48</v>
@@ -2051,7 +2048,7 @@
         <v>1193278</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2071,7 +2068,7 @@
         <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>39</v>
@@ -2101,7 +2098,7 @@
         <v>4444607</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2121,7 +2118,7 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26">
         <v>76</v>
@@ -2151,7 +2148,7 @@
         <v>48696</v>
       </c>
       <c r="O26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2171,7 +2168,7 @@
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -2201,7 +2198,7 @@
         <v>1311269</v>
       </c>
       <c r="O27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2221,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>147</v>
@@ -2251,7 +2248,7 @@
         <v>1008115</v>
       </c>
       <c r="O28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2271,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>83</v>
@@ -2301,7 +2298,7 @@
         <v>289389</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2321,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30">
         <v>91</v>
@@ -2351,7 +2348,7 @@
         <v>430473</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2371,7 +2368,7 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>46</v>
@@ -2401,7 +2398,7 @@
         <v>65296</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -2421,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32">
         <v>67</v>
@@ -2451,7 +2448,7 @@
         <v>226818</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -2471,7 +2468,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33">
         <v>76</v>
@@ -2501,7 +2498,7 @@
         <v>941354</v>
       </c>
       <c r="O33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -2521,7 +2518,7 @@
         <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34">
         <v>46</v>
@@ -2551,7 +2548,7 @@
         <v>196812</v>
       </c>
       <c r="O34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -2571,7 +2568,7 @@
         <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <v>60</v>
@@ -2601,7 +2598,7 @@
         <v>2156866</v>
       </c>
       <c r="O35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -2621,7 +2618,7 @@
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <v>91</v>
@@ -2651,7 +2648,7 @@
         <v>1243695</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -2671,7 +2668,7 @@
         <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <v>121</v>
@@ -2701,7 +2698,7 @@
         <v>329247</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -2721,7 +2718,7 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38">
         <v>125</v>
@@ -2751,7 +2748,7 @@
         <v>135007</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -2771,7 +2768,7 @@
         <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39">
         <v>55</v>
@@ -2801,7 +2798,7 @@
         <v>60799</v>
       </c>
       <c r="O39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -2821,7 +2818,7 @@
         <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40">
         <v>47</v>
@@ -2851,7 +2848,7 @@
         <v>368195</v>
       </c>
       <c r="O40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -2871,7 +2868,7 @@
         <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <v>101</v>
@@ -2901,7 +2898,7 @@
         <v>127821</v>
       </c>
       <c r="O41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -2921,7 +2918,7 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>66</v>
@@ -2951,7 +2948,7 @@
         <v>1444310</v>
       </c>
       <c r="O42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -2971,7 +2968,7 @@
         <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <v>108</v>
@@ -3001,7 +2998,7 @@
         <v>406187</v>
       </c>
       <c r="O43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -3021,7 +3018,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>148</v>
@@ -3051,7 +3048,7 @@
         <v>398490</v>
       </c>
       <c r="O44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -3071,7 +3068,7 @@
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>38</v>
@@ -3101,7 +3098,7 @@
         <v>3018872</v>
       </c>
       <c r="O45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -3121,7 +3118,7 @@
         <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>152</v>
@@ -3151,7 +3148,7 @@
         <v>132393</v>
       </c>
       <c r="O46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -3171,7 +3168,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>31</v>
@@ -3201,7 +3198,7 @@
         <v>396159</v>
       </c>
       <c r="O47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -3221,7 +3218,7 @@
         <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48">
         <v>14</v>
@@ -3251,7 +3248,7 @@
         <v>277618</v>
       </c>
       <c r="O48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -3271,7 +3268,7 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>55</v>
@@ -3301,7 +3298,7 @@
         <v>132272</v>
       </c>
       <c r="O49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <v>48</v>
@@ -3351,7 +3348,7 @@
         <v>106357</v>
       </c>
       <c r="O50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -3371,7 +3368,7 @@
         <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51">
         <v>48</v>
@@ -3401,7 +3398,7 @@
         <v>2834287</v>
       </c>
       <c r="O51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -3421,7 +3418,7 @@
         <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F52">
         <v>81</v>
@@ -3451,7 +3448,7 @@
         <v>59576</v>
       </c>
       <c r="O52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -3471,7 +3468,7 @@
         <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -3501,7 +3498,7 @@
         <v>269542</v>
       </c>
       <c r="O53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -3521,7 +3518,7 @@
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54">
         <v>91</v>
@@ -3551,7 +3548,7 @@
         <v>94109</v>
       </c>
       <c r="O54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -3571,7 +3568,7 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55">
         <v>54</v>
@@ -3601,7 +3598,7 @@
         <v>951583</v>
       </c>
       <c r="O55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -3621,7 +3618,7 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56">
         <v>97</v>
@@ -3651,7 +3648,7 @@
         <v>85817</v>
       </c>
       <c r="O56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -3671,7 +3668,7 @@
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F57">
         <v>23</v>
@@ -3701,7 +3698,7 @@
         <v>214184</v>
       </c>
       <c r="O57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -3721,7 +3718,7 @@
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F58">
         <v>39</v>
@@ -3751,7 +3748,7 @@
         <v>75557</v>
       </c>
       <c r="O58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -3771,7 +3768,7 @@
         <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59">
         <v>66</v>
@@ -3801,7 +3798,7 @@
         <v>242285</v>
       </c>
       <c r="O59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
@@ -3821,7 +3818,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F60">
         <v>117</v>
@@ -3851,7 +3848,7 @@
         <v>115133</v>
       </c>
       <c r="O60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -3871,7 +3868,7 @@
         <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61">
         <v>35</v>
@@ -3901,7 +3898,7 @@
         <v>521345</v>
       </c>
       <c r="O61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -3921,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62">
         <v>66</v>
@@ -3951,7 +3948,7 @@
         <v>1463520</v>
       </c>
       <c r="O62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -3965,43 +3962,43 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>390.8</v>
+        <v>965.7</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F63">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G63">
-        <v>543.99</v>
+        <v>33011.8</v>
       </c>
       <c r="H63">
-        <v>-30.08</v>
+        <v>-26.51</v>
       </c>
       <c r="I63">
-        <v>73.81999999999999</v>
+        <v>52.56</v>
       </c>
       <c r="J63">
-        <v>-5.54</v>
+        <v>-12.31</v>
       </c>
       <c r="K63">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N63">
-        <v>25961</v>
+        <v>439490</v>
       </c>
       <c r="O63" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -4015,43 +4012,43 @@
         <v>77</v>
       </c>
       <c r="C64">
-        <v>965.7</v>
+        <v>1625</v>
       </c>
       <c r="D64">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F64">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G64">
-        <v>33011.8</v>
+        <v>8712.77</v>
       </c>
       <c r="H64">
-        <v>-26.51</v>
+        <v>-18.41</v>
       </c>
       <c r="I64">
-        <v>52.56</v>
+        <v>84.56</v>
       </c>
       <c r="J64">
-        <v>-12.31</v>
+        <v>-6.92</v>
       </c>
       <c r="K64">
-        <v>7.05</v>
+        <v>12.81</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N64">
-        <v>439490</v>
+        <v>86725</v>
       </c>
       <c r="O64" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -4065,40 +4062,40 @@
         <v>78</v>
       </c>
       <c r="C65">
-        <v>1625</v>
+        <v>1970</v>
       </c>
       <c r="D65">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G65">
-        <v>8712.77</v>
+        <v>5409.32</v>
       </c>
       <c r="H65">
-        <v>-18.41</v>
+        <v>-25.66</v>
       </c>
       <c r="I65">
-        <v>84.56</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="J65">
-        <v>-6.92</v>
+        <v>-13.56</v>
       </c>
       <c r="K65">
-        <v>12.81</v>
+        <v>18.3</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N65">
-        <v>86725</v>
+        <v>185001</v>
       </c>
       <c r="O65" t="s">
         <v>150</v>
@@ -4115,40 +4112,40 @@
         <v>79</v>
       </c>
       <c r="C66">
-        <v>1970</v>
+        <v>721.5</v>
       </c>
       <c r="D66">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F66">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G66">
-        <v>5409.32</v>
+        <v>13807.22</v>
       </c>
       <c r="H66">
-        <v>-25.66</v>
+        <v>-17.7</v>
       </c>
       <c r="I66">
-        <v>72.93000000000001</v>
+        <v>51.11</v>
       </c>
       <c r="J66">
-        <v>-13.56</v>
+        <v>-5.9</v>
       </c>
       <c r="K66">
-        <v>18.3</v>
+        <v>9.4</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N66">
-        <v>185001</v>
+        <v>398912</v>
       </c>
       <c r="O66" t="s">
         <v>151</v>
@@ -4165,43 +4162,43 @@
         <v>80</v>
       </c>
       <c r="C67">
-        <v>721.5</v>
+        <v>1088.85</v>
       </c>
       <c r="D67">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
         <v>105</v>
       </c>
       <c r="F67">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G67">
-        <v>13807.22</v>
+        <v>1648.3</v>
       </c>
       <c r="H67">
-        <v>-17.7</v>
+        <v>-18.81</v>
       </c>
       <c r="I67">
-        <v>51.11</v>
+        <v>41.95</v>
       </c>
       <c r="J67">
-        <v>-5.9</v>
+        <v>-2.67</v>
       </c>
       <c r="K67">
-        <v>9.4</v>
+        <v>4.95</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M67">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N67">
-        <v>398912</v>
+        <v>27682</v>
       </c>
       <c r="O67" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -4215,43 +4212,43 @@
         <v>81</v>
       </c>
       <c r="C68">
-        <v>1088.85</v>
+        <v>793</v>
       </c>
       <c r="D68">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G68">
-        <v>1648.3</v>
+        <v>1810.28</v>
       </c>
       <c r="H68">
-        <v>-18.81</v>
+        <v>-24.4</v>
       </c>
       <c r="I68">
-        <v>41.95</v>
+        <v>70.75</v>
       </c>
       <c r="J68">
-        <v>-2.67</v>
+        <v>-7.57</v>
       </c>
       <c r="K68">
-        <v>4.95</v>
+        <v>13.75</v>
       </c>
       <c r="L68">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N68">
-        <v>27682</v>
+        <v>217790</v>
       </c>
       <c r="O68" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -4265,43 +4262,43 @@
         <v>82</v>
       </c>
       <c r="C69">
-        <v>793</v>
+        <v>1115.05</v>
       </c>
       <c r="D69">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G69">
-        <v>1810.28</v>
+        <v>8755.77</v>
       </c>
       <c r="H69">
-        <v>-24.4</v>
+        <v>-27.78</v>
       </c>
       <c r="I69">
-        <v>70.75</v>
+        <v>68.67</v>
       </c>
       <c r="J69">
-        <v>-7.57</v>
+        <v>-12.65</v>
       </c>
       <c r="K69">
-        <v>13.75</v>
+        <v>12.15</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N69">
-        <v>217790</v>
+        <v>557528</v>
       </c>
       <c r="O69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -4315,43 +4312,43 @@
         <v>83</v>
       </c>
       <c r="C70">
-        <v>1115.05</v>
+        <v>651</v>
       </c>
       <c r="D70">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>106</v>
       </c>
       <c r="F70">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G70">
-        <v>8755.77</v>
+        <v>39722.67</v>
       </c>
       <c r="H70">
-        <v>-27.78</v>
+        <v>-9.01</v>
       </c>
       <c r="I70">
-        <v>68.67</v>
+        <v>42.98</v>
       </c>
       <c r="J70">
-        <v>-12.65</v>
+        <v>-5.32</v>
       </c>
       <c r="K70">
-        <v>12.15</v>
+        <v>10.75</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M70">
         <v>55</v>
       </c>
       <c r="N70">
-        <v>557528</v>
+        <v>1861726</v>
       </c>
       <c r="O70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -4365,40 +4362,40 @@
         <v>84</v>
       </c>
       <c r="C71">
-        <v>651</v>
+        <v>3700</v>
       </c>
       <c r="D71">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="G71">
-        <v>39722.67</v>
+        <v>7330.14</v>
       </c>
       <c r="H71">
-        <v>-9.01</v>
+        <v>-18.14</v>
       </c>
       <c r="I71">
-        <v>42.98</v>
+        <v>122.45</v>
       </c>
       <c r="J71">
-        <v>-5.32</v>
+        <v>-9.07</v>
       </c>
       <c r="K71">
-        <v>10.75</v>
+        <v>26.49</v>
       </c>
       <c r="L71">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M71">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N71">
-        <v>1861726</v>
+        <v>37870</v>
       </c>
       <c r="O71" t="s">
         <v>154</v>
@@ -4415,43 +4412,43 @@
         <v>85</v>
       </c>
       <c r="C72">
-        <v>3700</v>
+        <v>491.8</v>
       </c>
       <c r="D72">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="G72">
-        <v>7330.14</v>
+        <v>590.16</v>
       </c>
       <c r="H72">
-        <v>-18.14</v>
+        <v>-36.46</v>
       </c>
       <c r="I72">
-        <v>122.45</v>
+        <v>256.89</v>
       </c>
       <c r="J72">
-        <v>-9.07</v>
+        <v>-11.8</v>
       </c>
       <c r="K72">
-        <v>26.49</v>
+        <v>10.75</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N72">
-        <v>37870</v>
+        <v>52268</v>
       </c>
       <c r="O72" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -4465,43 +4462,43 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <v>491.8</v>
+        <v>4976.65</v>
       </c>
       <c r="D73">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
         <v>107</v>
       </c>
       <c r="F73">
+        <v>67</v>
+      </c>
+      <c r="G73">
+        <v>15420.14</v>
+      </c>
+      <c r="H73">
+        <v>-16.48</v>
+      </c>
+      <c r="I73">
+        <v>25.08</v>
+      </c>
+      <c r="J73">
+        <v>-1.96</v>
+      </c>
+      <c r="K73">
+        <v>5.18</v>
+      </c>
+      <c r="L73">
+        <v>39</v>
+      </c>
+      <c r="M73">
+        <v>47</v>
+      </c>
+      <c r="N73">
+        <v>32314</v>
+      </c>
+      <c r="O73" t="s">
         <v>111</v>
-      </c>
-      <c r="G73">
-        <v>590.16</v>
-      </c>
-      <c r="H73">
-        <v>-36.46</v>
-      </c>
-      <c r="I73">
-        <v>256.89</v>
-      </c>
-      <c r="J73">
-        <v>-11.8</v>
-      </c>
-      <c r="K73">
-        <v>10.75</v>
-      </c>
-      <c r="L73">
-        <v>25</v>
-      </c>
-      <c r="M73">
-        <v>77</v>
-      </c>
-      <c r="N73">
-        <v>52268</v>
-      </c>
-      <c r="O73" t="s">
-        <v>124</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
@@ -4515,43 +4512,43 @@
         <v>87</v>
       </c>
       <c r="C74">
-        <v>4976.65</v>
+        <v>618</v>
       </c>
       <c r="D74">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="G74">
-        <v>15420.14</v>
+        <v>922.36</v>
       </c>
       <c r="H74">
-        <v>-16.48</v>
+        <v>-19.53</v>
       </c>
       <c r="I74">
-        <v>25.08</v>
+        <v>33.89</v>
       </c>
       <c r="J74">
-        <v>-1.96</v>
+        <v>-5.11</v>
       </c>
       <c r="K74">
-        <v>5.18</v>
+        <v>3.23</v>
       </c>
       <c r="L74">
         <v>39</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N74">
-        <v>32314</v>
+        <v>62816</v>
       </c>
       <c r="O74" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -4565,43 +4562,43 @@
         <v>88</v>
       </c>
       <c r="C75">
-        <v>618</v>
+        <v>7548.4</v>
       </c>
       <c r="D75">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="G75">
-        <v>922.36</v>
+        <v>22066.34</v>
       </c>
       <c r="H75">
-        <v>-19.53</v>
+        <v>-7.72</v>
       </c>
       <c r="I75">
-        <v>33.89</v>
+        <v>44.83</v>
       </c>
       <c r="J75">
-        <v>-5.11</v>
+        <v>-3.64</v>
       </c>
       <c r="K75">
-        <v>3.23</v>
+        <v>10.18</v>
       </c>
       <c r="L75">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N75">
-        <v>62816</v>
+        <v>82040</v>
       </c>
       <c r="O75" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -4615,43 +4612,43 @@
         <v>89</v>
       </c>
       <c r="C76">
-        <v>7548.4</v>
+        <v>590</v>
       </c>
       <c r="D76">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76">
         <v>67</v>
       </c>
       <c r="G76">
-        <v>22066.34</v>
+        <v>1785.49</v>
       </c>
       <c r="H76">
-        <v>-7.72</v>
+        <v>-18.84</v>
       </c>
       <c r="I76">
-        <v>44.83</v>
+        <v>44.05</v>
       </c>
       <c r="J76">
-        <v>-3.64</v>
+        <v>-2.7</v>
       </c>
       <c r="K76">
-        <v>10.18</v>
+        <v>5.58</v>
       </c>
       <c r="L76">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M76">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N76">
-        <v>82040</v>
+        <v>44733</v>
       </c>
       <c r="O76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -4665,43 +4662,43 @@
         <v>90</v>
       </c>
       <c r="C77">
-        <v>590</v>
+        <v>2997.4</v>
       </c>
       <c r="D77">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F77">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G77">
-        <v>1785.49</v>
+        <v>7102.87</v>
       </c>
       <c r="H77">
-        <v>-18.84</v>
+        <v>-14.97</v>
       </c>
       <c r="I77">
-        <v>44.05</v>
+        <v>62.73</v>
       </c>
       <c r="J77">
-        <v>-2.7</v>
+        <v>-7.55</v>
       </c>
       <c r="K77">
-        <v>5.58</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M77">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N77">
-        <v>44733</v>
+        <v>40971</v>
       </c>
       <c r="O77" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -4715,43 +4712,43 @@
         <v>91</v>
       </c>
       <c r="C78">
-        <v>2997.4</v>
+        <v>709.95</v>
       </c>
       <c r="D78">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G78">
-        <v>7102.87</v>
+        <v>1574.33</v>
       </c>
       <c r="H78">
-        <v>-14.97</v>
+        <v>-16.47</v>
       </c>
       <c r="I78">
-        <v>62.73</v>
+        <v>41.64</v>
       </c>
       <c r="J78">
-        <v>-7.55</v>
+        <v>-10.09</v>
       </c>
       <c r="K78">
-        <v>4.2</v>
+        <v>11.8</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N78">
-        <v>40971</v>
+        <v>146127</v>
       </c>
       <c r="O78" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
@@ -4765,43 +4762,43 @@
         <v>92</v>
       </c>
       <c r="C79">
-        <v>709.95</v>
+        <v>30.1</v>
       </c>
       <c r="D79">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
       </c>
       <c r="F79">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G79">
-        <v>1574.33</v>
+        <v>514.37</v>
       </c>
       <c r="H79">
-        <v>-16.47</v>
+        <v>-25.31</v>
       </c>
       <c r="I79">
-        <v>41.64</v>
+        <v>59.05</v>
       </c>
       <c r="J79">
-        <v>-10.09</v>
+        <v>-7.16</v>
       </c>
       <c r="K79">
-        <v>11.8</v>
+        <v>0.53</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N79">
-        <v>146127</v>
+        <v>2524580</v>
       </c>
       <c r="O79" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -4815,46 +4812,46 @@
         <v>93</v>
       </c>
       <c r="C80">
-        <v>30.1</v>
+        <v>4092.3</v>
       </c>
       <c r="D80">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80">
+        <v>58</v>
+      </c>
+      <c r="G80">
+        <v>82484.14999999999</v>
+      </c>
+      <c r="H80">
+        <v>-30.17</v>
+      </c>
+      <c r="I80">
+        <v>127.78</v>
+      </c>
+      <c r="J80">
+        <v>-3.65</v>
+      </c>
+      <c r="K80">
+        <v>18.09</v>
+      </c>
+      <c r="L80">
+        <v>29</v>
+      </c>
+      <c r="M80">
         <v>54</v>
       </c>
-      <c r="E80" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80">
-        <v>111</v>
-      </c>
-      <c r="G80">
-        <v>514.37</v>
-      </c>
-      <c r="H80">
-        <v>-25.31</v>
-      </c>
-      <c r="I80">
-        <v>59.05</v>
-      </c>
-      <c r="J80">
-        <v>-7.16</v>
-      </c>
-      <c r="K80">
-        <v>0.53</v>
-      </c>
-      <c r="L80">
-        <v>25</v>
-      </c>
-      <c r="M80">
-        <v>42</v>
-      </c>
       <c r="N80">
-        <v>2524580</v>
+        <v>2500652</v>
       </c>
       <c r="O80" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4865,43 +4862,43 @@
         <v>94</v>
       </c>
       <c r="C81">
-        <v>4092.3</v>
+        <v>2878.15</v>
       </c>
       <c r="D81">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
         <v>102</v>
       </c>
       <c r="F81">
+        <v>47</v>
+      </c>
+      <c r="G81">
+        <v>54032.85</v>
+      </c>
+      <c r="H81">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="I81">
+        <v>33.46</v>
+      </c>
+      <c r="J81">
+        <v>-4.51</v>
+      </c>
+      <c r="K81">
+        <v>7.4</v>
+      </c>
+      <c r="L81">
+        <v>37</v>
+      </c>
+      <c r="M81">
         <v>58</v>
       </c>
-      <c r="G81">
-        <v>82484.14999999999</v>
-      </c>
-      <c r="H81">
-        <v>-30.17</v>
-      </c>
-      <c r="I81">
-        <v>127.78</v>
-      </c>
-      <c r="J81">
-        <v>-3.65</v>
-      </c>
-      <c r="K81">
-        <v>18.09</v>
-      </c>
-      <c r="L81">
-        <v>29</v>
-      </c>
-      <c r="M81">
-        <v>54</v>
-      </c>
       <c r="N81">
-        <v>2500652</v>
+        <v>790352</v>
       </c>
       <c r="O81" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="P81" t="b">
         <v>0</v>
@@ -4915,43 +4912,43 @@
         <v>95</v>
       </c>
       <c r="C82">
-        <v>2878.15</v>
+        <v>380</v>
       </c>
       <c r="D82">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82">
+        <v>164</v>
+      </c>
+      <c r="G82">
+        <v>81059.42</v>
+      </c>
+      <c r="H82">
+        <v>-16.88</v>
+      </c>
+      <c r="I82">
+        <v>92.58</v>
+      </c>
+      <c r="J82">
+        <v>-6.54</v>
+      </c>
+      <c r="K82">
+        <v>5.04</v>
+      </c>
+      <c r="L82">
+        <v>28</v>
+      </c>
+      <c r="M82">
         <v>47</v>
       </c>
-      <c r="G82">
-        <v>54032.85</v>
-      </c>
-      <c r="H82">
-        <v>-9.710000000000001</v>
-      </c>
-      <c r="I82">
-        <v>33.46</v>
-      </c>
-      <c r="J82">
-        <v>-4.51</v>
-      </c>
-      <c r="K82">
-        <v>7.4</v>
-      </c>
-      <c r="L82">
-        <v>37</v>
-      </c>
-      <c r="M82">
-        <v>58</v>
-      </c>
       <c r="N82">
-        <v>790352</v>
+        <v>8686093</v>
       </c>
       <c r="O82" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="P82" t="b">
         <v>0</v>
@@ -4965,43 +4962,43 @@
         <v>96</v>
       </c>
       <c r="C83">
-        <v>380</v>
+        <v>2113.25</v>
       </c>
       <c r="D83">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
         <v>103</v>
       </c>
       <c r="F83">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="G83">
-        <v>81059.42</v>
+        <v>95112.10000000001</v>
       </c>
       <c r="H83">
-        <v>-16.88</v>
+        <v>-8.6</v>
       </c>
       <c r="I83">
-        <v>92.58</v>
+        <v>80.73999999999999</v>
       </c>
       <c r="J83">
-        <v>-6.54</v>
+        <v>-5.11</v>
       </c>
       <c r="K83">
-        <v>5.04</v>
+        <v>14.39</v>
       </c>
       <c r="L83">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M83">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N83">
-        <v>8686093</v>
+        <v>1159619</v>
       </c>
       <c r="O83" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="P83" t="b">
         <v>0</v>
@@ -5015,43 +5012,43 @@
         <v>97</v>
       </c>
       <c r="C84">
-        <v>2113.25</v>
+        <v>1900.75</v>
       </c>
       <c r="D84">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E84" t="s">
         <v>104</v>
       </c>
       <c r="F84">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G84">
-        <v>95112.10000000001</v>
+        <v>95089.64999999999</v>
       </c>
       <c r="H84">
-        <v>-8.6</v>
+        <v>-17.43</v>
       </c>
       <c r="I84">
-        <v>80.73999999999999</v>
+        <v>43.79</v>
       </c>
       <c r="J84">
-        <v>-5.11</v>
+        <v>-7.82</v>
       </c>
       <c r="K84">
-        <v>14.39</v>
+        <v>5.07</v>
       </c>
       <c r="L84">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N84">
-        <v>1159619</v>
+        <v>780623</v>
       </c>
       <c r="O84" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="P84" t="b">
         <v>0</v>
@@ -5065,95 +5062,45 @@
         <v>98</v>
       </c>
       <c r="C85">
-        <v>1900.75</v>
+        <v>5612.15</v>
       </c>
       <c r="D85">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F85">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="G85">
-        <v>95089.64999999999</v>
+        <v>67241.56</v>
       </c>
       <c r="H85">
-        <v>-17.43</v>
+        <v>-12.85</v>
       </c>
       <c r="I85">
-        <v>43.79</v>
+        <v>31.12</v>
       </c>
       <c r="J85">
-        <v>-7.82</v>
+        <v>-7.56</v>
       </c>
       <c r="K85">
-        <v>5.07</v>
+        <v>4.35</v>
       </c>
       <c r="L85">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M85">
         <v>47</v>
       </c>
       <c r="N85">
-        <v>780623</v>
+        <v>194405</v>
       </c>
       <c r="O85" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86">
-        <v>5612.15</v>
-      </c>
-      <c r="D86">
-        <v>46</v>
-      </c>
-      <c r="E86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86">
-        <v>39</v>
-      </c>
-      <c r="G86">
-        <v>67241.56</v>
-      </c>
-      <c r="H86">
-        <v>-12.85</v>
-      </c>
-      <c r="I86">
-        <v>31.12</v>
-      </c>
-      <c r="J86">
-        <v>-7.56</v>
-      </c>
-      <c r="K86">
-        <v>4.35</v>
-      </c>
-      <c r="L86">
-        <v>27</v>
-      </c>
-      <c r="M86">
-        <v>47</v>
-      </c>
-      <c r="N86">
-        <v>194405</v>
-      </c>
-      <c r="O86" t="s">
-        <v>117</v>
-      </c>
-      <c r="P86" t="b">
         <v>0</v>
       </c>
     </row>
